--- a/6Timetable/data/20220525/●予約枠6月元データ（巽今宮・ダミー稼働日含む）.xlsx
+++ b/6Timetable/data/20220525/●予約枠6月元データ（巽今宮・ダミー稼働日含む）.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD82AF35-D0C8-4BE1-B6F9-FC73C61FC9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="会場" sheetId="8" r:id="rId1"/>
@@ -14,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">稼働日!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>開始時</t>
   </si>
@@ -233,17 +232,35 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>巽今宮病院_6/3～6/27（モデルナ）</t>
-  </si>
-  <si>
-    <t>巽今宮病院_6/3～6/27（モデルナ）</t>
+    <t>巽今宮病院_6月分（3回目接種・4回目接種混在）</t>
+    <rPh sb="7" eb="8">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カイメ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セッシュ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カイメ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セッシュ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コンザイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="[&lt;=99999999]####\-####;\(00\)\ ####\-####"/>
     <numFmt numFmtId="177" formatCode="h:mm;@"/>
@@ -502,7 +519,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -605,14 +622,17 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="標準 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準 2" xfId="1"/>
+    <cellStyle name="標準 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -915,7 +935,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -971,8 +991,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>30</v>
+      <c r="A2" s="36" t="s">
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>28</v>
@@ -1008,12 +1028,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15:G16"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1142,7 +1162,7 @@
       </c>
       <c r="P2" s="27" t="str">
         <f>C2&amp;"/"&amp;TEXT(E2,"yyyy-mm-dd")</f>
-        <v>巽今宮病院_6/3～6/27（モデルナ）/2022-06-03</v>
+        <v>巽今宮病院_6月分（3回目接種・4回目接種混在）/2022-06-03</v>
       </c>
       <c r="Q2" s="30" t="str">
         <f>TEXT(E2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(F2,"hh:MM")&amp;":00.000+9"</f>
@@ -1205,7 +1225,7 @@
       </c>
       <c r="P3" s="27" t="str">
         <f>C3&amp;"/"&amp;TEXT(E3,"yyyy-mm-dd")</f>
-        <v>巽今宮病院_6/3～6/27（モデルナ）/2022-06-10</v>
+        <v>巽今宮病院_6月分（3回目接種・4回目接種混在）/2022-06-10</v>
       </c>
       <c r="Q3" s="30" t="str">
         <f>TEXT(E3,"yyyy-mm-dd")&amp;"T"&amp;TEXT(F3,"hh:MM")&amp;":00.000+9"</f>
@@ -1268,7 +1288,7 @@
       </c>
       <c r="P4" s="27" t="str">
         <f>C4&amp;"/"&amp;TEXT(E4,"yyyy-mm-dd")</f>
-        <v>巽今宮病院_6/3～6/27（モデルナ）/2022-06-17</v>
+        <v>巽今宮病院_6月分（3回目接種・4回目接種混在）/2022-06-17</v>
       </c>
       <c r="Q4" s="30" t="str">
         <f>TEXT(E4,"yyyy-mm-dd")&amp;"T"&amp;TEXT(F4,"hh:MM")&amp;":00.000+9"</f>
@@ -1331,7 +1351,7 @@
       </c>
       <c r="P5" s="28" t="str">
         <f>C5&amp;"/"&amp;TEXT(E5,"yyyy-mm-dd")</f>
-        <v>巽今宮病院_6/3～6/27（モデルナ）/2022-06-24</v>
+        <v>巽今宮病院_6月分（3回目接種・4回目接種混在）/2022-06-24</v>
       </c>
       <c r="Q5" s="31" t="str">
         <f>TEXT(E5,"yyyy-mm-dd")&amp;"T"&amp;TEXT(F5,"hh:MM")&amp;":00.000+9"</f>
@@ -1398,7 +1418,7 @@
       </c>
       <c r="P6" s="29" t="str">
         <f>C6&amp;"/"&amp;TEXT(E6,"yyyy-mm-dd")</f>
-        <v>巽今宮病院_6/3～6/27（モデルナ）/2022-05-27</v>
+        <v>巽今宮病院_6月分（3回目接種・4回目接種混在）/2022-05-27</v>
       </c>
       <c r="Q6" s="32" t="str">
         <f>TEXT(E6,"yyyy-mm-dd")&amp;"T"&amp;TEXT(F6,"hh:MM")&amp;":00.000+9"</f>
